--- a/5. site_architecture.xlsx
+++ b/5. site_architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Site Architecture" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site Architecture" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Architecture'!$A$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Site Architecture'!$A$1:$J$61</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -447,11 +447,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
     <col width="55" customWidth="1" min="3" max="3"/>
     <col width="55" customWidth="1" min="4" max="4"/>
     <col width="70" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
@@ -518,28 +518,32 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр в СПб | Салон Arbuzova Beauty — Комендантский пр. 53к1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр в Санкт-Петербурге — салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1, Приморский район. Запись онлайн, доступные цены, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>/</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в СПб | Салон Arbuzova Beauty — Комендантский пр. 53к1</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в Санкт-Петербурге — салон Arbuzova Beauty</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1, Приморский район. Запись онлайн, доступные цены, опытные мастера.</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>/aktsii-manikyur, /apparatnyy-manikyur, /gigienicheskiy-manikyur, /detskiy-manikyur, /evropeyskiy-manikyur, /klassicheskiy-manikyur, /kombinirovannyy-manikyur, /koreyskiy-manikyur, /kreativnyy-manikyur, /manikyur-luxio, /manikyur-bez-pokrytiya, /manikyur-vtirka, /manikyur-v-4-ruki, /manikyur-ombre, /manikyur-s-dizaynom, /manikyur-s-pokrytiem, /meditsinskiy-manikyur, /muzhskoy-manikyur, /narashchivanie-nogtey, /nemetskiy-manikyur-lcn, /pilochnyy-manikyur, /plenochnyy-manikyur, /pudrovyy-manikyur, /snyatie-manikyura, /spa-manikyur, /french-manikyur, /ekspress-manikyur, /yaponskiy-manikyur</t>
+          <t>/apparatnyy-manikyur, /gigienicheskiy-manikyur, /detskiy-manikyur, /evropeyskiy-manikyur, /klassicheskiy-manikyur, /kombinirovannyy-manikyur, /koreyskiy-manikyur, /kreativnyy-manikyur, /manikyur-luxio, /manikyur-bez-pokrytiya, /manikyur-vtirka, /manikyur-ombre, /manikyur-s-dizaynom, /manikyur-s-pokrytiem, /meditsinskiy-manikyur, /muzhskoy-manikyur, /narashchivanie-nogtey, /nemetskiy-manikyur-lcn, /pilochnyy-manikyur, /plenochnyy-manikyur, /pudrovyy-manikyur, /snyatie-manikyura, /spa-manikyur, /french-manikyur, /ekspress-manikyur, /yaponskiy-manikyur</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
@@ -684,48 +688,925 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Услуги</t>
+          <t>Главная</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр в СПб | Салон Arbuzova Beauty — Комендантский пр. 53к1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр в Санкт-Петербурге — салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1, Приморский район. Запись онлайн, доступные цены, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>/apparatnyy-pedikyur, /brazilskiy-pedikyur, /detskiy-pedikyur, /diskovyy-pedikyur, /kislotnyy-pedikyur, /klassicheskiy-pedikyur, /kombinirovannyy-pedikyur, /meditsinskiy-pedikyur, /muzhskoy-pedikyur, /narashchivanie-pedikyur, /obrabotka-stop, /pedikyur-bez-pokrytiya, /pedikyur-vrosshiy-nogot, /pedikyur-dlya-pozhilykh, /pedikyur-pri-gribke, /pedikyur-s-pokrytiem, /pilochnyy-pedikyur, /plenochnyy-pedikyur, /smart-pedikyur, /snyatie-pedikyura, /spa-pedikyur, /french-pedikyur, /ekspress-pedikyur, /esteticheskiy-pedikyur, /yaponskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>21628</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>педикюр [12744]
+педикюр спб [2383]
+маникюр педикюр [1248]
+педикюр цена [596]
+педикюр рядом [355]
+педикюр со [281]
+педикюр рядом со мной [248]
+маникюр педикюр спб [237]
+педикюр спб рядом [192]
+педикюр метро [179]
+педикюр рядом со мной спб [172]
+салон педикюра [126]
+профессиональный маникюра педикюра [125]
+педикюр где [118]
+педикюр петербург [102]
+педикюр санкт петербург [99]
+педикюр адреса [96]
+салон маникюра и педикюра [80]
+кабинет педикюра [80]
+ногти педикюр [79]
+центр педикюра [76]
+стоит педикюр [72]
+педикюр приморский район [71]
+сколько стоит педикюр [64]
+стоимость педикюра [56]
+записаться на педикюр [55]
+1 педикюр [52]
+пр педикюр [52]
+педикюр цена в спб [51]
+запись на педикюр [50]
+педикюр спб недорого [49]
+педикюр в санкт петербурге адреса цены [48]
+педикюр 2 [47]
+салон красоты педикюр [47]
+педикюр рядом на карте [41]
+педикюр стоп [40]
+педикюр рядом со мной на карте [39]
+маникюр педикюр санкт [39]
+маникюр педикюр рядом [36]
+кабинет маникюра и педикюра [35]
+педикюр где можно [34]
+педикюр рядом недорого [31]
+педикюр недорого рядом со мной [31]
+педикюр в приморском районе спб [29]
+где делают педикюр [27]
+салон маникюр и педикюр спб цены [25]
+педикюр спб недорого рядом [25]
+педикюр спб недорого рядом со мной [25]
+маникюр педикюр петербург [22]
+педикюр рядом со мной спб на карте [22]
+маникюр педикюр рядом со мной [21]
+маникюр педикюр санкт петербург [21]
+педикюр на районе [20]
+педикюр адреса и цены [20]
+педикюр 5 [19]
+3 педикюр [15]
+педикюр спб записаться [15]
+педикюр пятки [15]
+педикюр город [14]
+педикюр г [14]
+сколько стоит педикюр в спб [14]
+услуги педикюра [13]
+педикюр пяток [13]
+педикюр nail [12]
+дешевый педикюр [12]
+центр маникюра и педикюра [12]
+педикюр работы [11]
+педикюр очень [11]
+записаться на педикюр спб [11]
+педикюр под [10]
+педикюр б [10]
+стоимость педикюра в спб [10]
+салон красоты маникюр педикюр [9]
+педикюр 0 [9]
+маникюр педикюр рядом со мной спб [9]
+педикюр салон красоты спб [9]
+профессиональный педикюр [9]
+педикюр качественно [9]
+услуги маникюра и педикюра [8]
+маникюра педикюра недорого [8]
+маникюр м педикюр [8]
+педикюр п [8]
+фирмы маникюра и педикюра [8]
+педикюр в приморском районе санкт петербурга [8]
+самый дешевый педикюр [8]
+педикюр ступни [8]
+педикюр через [7]
+педикюр салон цена [7]
+педикюр адреса и телефоны [7]
+педикюр 1 2 [7]
+сколько стоит педикюр на ногах [6]
+сеть педикюра [6]
+педикюр спб центр [6]
+педикюр запись спб [6]
+педикюр недорого 1000 спб [6]
+самый дешевый педикюр в приморском районе [6]
+кабинет мастера педикюра [6]
+сложный педикюр [6]
+маникюр и педикюр цена [5]
+где маникюр педикюр [5]
+косметология педикюр [5]
+педикюр т [5]
+маникюр и педикюр стоимость [5]
+маникюр педикюр записаться [5]
+ближайший маникюр педикюр [5]
+педикюр спб отзывы [5]
+педикюр ног в спб цена [5]
+педикюр рядом с домом [5]
+запись на педикюр спб [5]
+маникюр т педикюр [5]
+педикюр сейчас [5]
+маникюр педикюр в подарок [5]
+свободные окошки на маникюр и педикюр [5]
+педикюр 50 [5]
+прайс на педикюр [4]
+маникюр педикюр гель [4]
+сайт маникюра педикюра [4]
+педикюр чистка [4]
+педикюр р [4]
+педикюр лена [4]
+педикюр без стоп [4]
+педикюр адреса салонов [4]
+педикюр быстро [4]
+педикюр пяточки [4]
+педикюр обычный [4]
+кабинет мастера маникюра и педикюра [4]
+nails маникюр педикюр [3]
+найти педикюр [3]
+бьюти педикюр [3]
+маникюр педикюр на карте [3]
+цены на услуги маникюра и педикюра [3]
+сеть студий маникюра и педикюра [3]
+hands маникюр педикюр [3]
+салон педикюра рядом со мной [3]
+салон красоты педикюр рядом [3]
+педикюр стоп в салоне [3]
+педикюр метро пионерская [3]
+записаться на маникюр педикюр [3]
+сеть студий педикюра [3]
+маникюр педикюр ногтей [3]
+педикюр без обработки [3]
+24 педикюр [3]
+педикюр сложные ногти [3]
+педикюр под маникюр [3]
+ногти на ногах педикюр [3]
+маникюр педикюр делает [2]
+маникюр педикюр покрытие [2]
+сколько стоит маникюр и педикюр [2]
+комплекс педикюра [2]
+педикюр https [2]
+хочу педикюр [2]
+педикюр салоны рядом [2]
+педикюр н [2]
+запись на маникюр и педикюр [2]
+комплекс маникюр и педикюр [2]
+маникюр педикюр рядом со мной на карте [2]
+маникюр педикюр 24 [2]
+маникюр педикюр комендантский [2]
+салон красоты педикюр цена [2]
+педикюр на ногах цены [2]
+спб педикюр с массажем [2]
+записаться на педикюр рядом [2]
+салон маникюра и педикюра рядом [2]
+салоны маникюра и педикюра спб [2]
+средняя стоимость педикюра [2]
+педикюр чистка ногтей [2]
+салоны педикюра спб [2]
+педикюр без обработки стоп [2]
+александра педикюр [2]
+педикюр со стопой [2]
+прайс маникюр педикюр [2]
+лучший педикюр спб [2]
+педикюр приглашение [2]
+место педикюра [2]
+педикюр ногти покрытие [2]
+приглашение на маникюр педикюр [2]
+адреса магазинов для маникюра и педикюра [2]
+маленький кабинет педикюра [2]
+маникюр педикюр сделан [1]
+заказать педикюр [1]
+пара педикюр [1]
+в области маникюра и педикюра [1]
+гигиенический педикюр маникюр [1]
+муж маникюр педикюр [1]
+авиаторов маникюр педикюр [1]
+маникюр педикюр спб цена [1]
+маникюр и педикюр рядом со мной недорого [1]
+профессиональный педикюр спб [1]
+записаться на педикюр рядом со мной [1]
+салоны маникюра и педикюра рядом со мной [1]
+педикюр новый город [1]
+женский педикюр цена [1]
+педикюр премиум класса [1]
+сколько стоит педикюр цена [1]
+педикюр pro [1]
+прайс лист маникюр и педикюр [1]
+педикюр в 14 лет [1]
+педикюр под ключ [1]
+прайс на маникюр и педикюр [1]
+ноги маникюр педикюр [1]
+салоны маникюра и педикюра ногти [1]
+педикюр лучшие салоны [1]
+покраска педикюра [1]
+маникюр педикюр на ногах [1]
+ручной педикюра [1]
+педикюр удаление кутикулы [1]
+педикюр коррекция [1]
+прайс лист на педикюр [1]
+европейский педикюр [1]
+больной педикюр [1]
+маникюр педикюр женщины [1]
+окошко на педикюр [1]
+свободные окна на маникюр и педикюр [1]
+педикюр professional [1]
+специалист маникюра и педикюра [1]
+педикюр без пыли [1]
+окно на маникюр педикюр [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей в СПб | Салон Arbuzova Beauty — Комендантский пр. 53к1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей в Санкт-Петербурге — салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1, Приморский район. Запись онлайн, доступные цены, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /korrektsiya-narashchivaniya, /narashchivanie-nogtey-muzhchinam, /narashchivanie-na-nogakh, /narashchivanie-french, /remont-narashchennogo-nogtya</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2962</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>наращивание ногтей [2148]
+наращивание ногтей спб [302]
+наращивание ногтей стоит [73]
+сколько стоит наращивание ногтей [69]
+маникюр наращивание ногтей [45]
+наращивание ногтей район [34]
+наращивание ногтей цена [32]
+наращивание ногтей рядом [26]
+наращивание ногтей петербург [24]
+наращивание ногтей санкт петербург [24]
+наращивание ногтей метро [23]
+наращивание ногтей спб недорого [23]
+маникюр спб наращивание [12]
+наращивание ногтей рядом со мной [10]
+наращивание ногтей где [9]
+наращивание ногтей под [9]
+средняя стоимость наращивания ногтей [7]
+сколько стоит наращивание ногтей и маникюр [6]
+где делают наращивание ногтей [5]
+наращивание ногтей рядом недорого [5]
+экстра наращивание ногтей [5]
+маникюр наращивание [4]
+наращивание ногтей м [4]
+запись на наращивание ногтей [4]
+наращивание ногтей покрытие [4]
+длинное наращивание ногтей [4]
+сколько стоит маникюр с наращиванием и дизайном [3]
+наращивание ногтей педикюр [3]
+услуги наращивание ногтей [3]
+наращивание ногтей стоимость [3]
+маникюр педикюр наращивание ногтей [3]
+сколько стоит наращивание ногтей с дизайном [3]
+сколько стоит наращивание ногтей в салоне [3]
+сколько в среднем стоит наращивание ногтей [3]
+классическое наращивание ногтей [3]
+кератиновое наращивание ногтей [3]
+сколько стоит маникюр с наращиванием [2]
+маникюр наращивание френч [2]
+питер ногти наращивание [2]
+сколько примерно стоит наращивание ногтей [2]
+дип наращивание ногтей [2]
+маникюр короткое наращивание [1]
+маникюр с наращиванием цена [1]
+маникюр наращивание ногтей рядом [1]
+наращивание ногтей адрес [1]
+наращивание ногтей дешево [1]
+стоить наращивание ногтей [1]
+сколько будет стоить наращивание ногтей [1]
+наращивание ногтей акриловой пудрой [1]
+наращивание ногтей без покрытия [1]
+ногти когти наращивание [1]
+наращивание ногтей дип системой [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>/meditsinskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Медицинский педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Медицинский (лечебный, подологический) педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Медицинский педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Подологический уход, лечение грибка и вросших ногтей. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur, /apparatnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>3742</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>медицинский педикюр [1544]
+медицинский педикюр спб [560]
+лечебный педикюр [206]
+подолог педикюр [99]
+медицинский педикюр в санкт [89]
+лечебный педикюр спб [89]
+подологический педикюр [87]
+медицинский педикюр в санкт петербурге [78]
+медицинский педикюр адреса [75]
+медицинский педикюр в петербурге адреса [60]
+медицинский педикюр в санкт петербурге адреса [60]
+медицинский педикюр адреса цены [57]
+медицинский педикюр у подолога [54]
+медицинский педикюр для пожилых [53]
+медицинский педикюр в санкт петербурге цены [49]
+медицинский педикюр в санкт петербурге адреса цены [48]
+медицинский педикюр у подолога спб [43]
+центр подологии и педикюра [33]
+мед педикюр [27]
+медицинский педикюр квд [26]
+педикюр у подолога в спб [24]
+медицинский педикюр приморский район [23]
+медицинский педикюр цена [23]
+медицинский педикюр спб для пожилых [21]
+кабинет педикюра и подологии [17]
+медицинский педикюр где [17]
+медицинский педикюр приморском [15]
+медицинский педикюр спб приморский [15]
+медицинский педикюр спб приморский район [15]
+медицинский педикюр ногтей [13]
+медицинский педикюр цена спб [13]
+медицинский педикюр записаться [13]
+мужской медицинский педикюр [12]
+педикюр клиника [12]
+мед педикюр спб [11]
+медицинский педикюр грибке [11]
+петербург медицинский педикюр [10]
+медицинский педикюр при грибке ногтей [10]
+маникюр педикюр подология [8]
+лечебный педикюр при грибке [8]
+сколько стоит медицинский педикюр [8]
+подология и педикюр [7]
+педикюр проблемных ногтей [7]
+медицинский маникюр и педикюр [7]
+медицинский педикюр рядом со мной [7]
+центр педикюра подолог [7]
+педикюр лечение [7]
+педикюр рядом со мной спб медицинский [6]
+центр подологии и педикюра 1 [5]
+педикюр проблемных ногтей с грибком [5]
+маникюр педикюр подолог [4]
+стоимость медицинского педикюра [4]
+где делают медицинский педикюр [4]
+лечебный педикюр при грибке ногтей на ногах [4]
+проблемный педикюр [3]
+аппаратный медицинский педикюр при грибке ногтей [3]
+аппаратный педикюр подолог [3]
+сколько стоит подологический педикюр [3]
+педикюр лечение грибка [3]
+врач педикюр [2]
+подологический педикюр 1 степени [2]
+медицинский педикюр пожилым [1]
+педикюр проблемных ногтей на ногах [1]
+лечебный маникюр и педикюр [1]
+мужской педикюр подолог [1]
+цена педикюра у подолога [1]
+педикюр подолог рядом [1]
+сколько стоит педикюр у подолога [1]
+подология и маникюр педикюр [1]
+медицинский педикюр у подолога цена [1]
+медицинский педикюр косметологи [1]
+педикюр с проблемными ногтями для пожилых [1]
+педикюр для пожилых женщин с проблемными ногтями [1]
+парамедицинский педикюр это такое простыми [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>/pokrytie-nogtey</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Покрытие ногтей в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Покрытие ногтей гель-лаком в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Покрытие ногтей гель-лаком в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Гель, лак, акрил, укрепление, лечебное покрытие. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /manikyur-s-pokrytiem, /manikyur-bez-pokrytiya, /pedikyur-s-pokrytiem, /narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>959</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>покрытие ногтей [745]
+покрытие ногтей лаком [73]
+покрытие ногтей гель лаком [52]
+покрытие ногтей гелем [35]
+покрытие гель лаком [16]
+покрытие ногтей спб [6]
+акриловое покрытие ногтей [4]
+покрытие укрепление ногтей [4]
+покрытие ногтей цена [3]
+сколько стоит покрытие ногтей [3]
+покрытие укрепление ногтей гелем [3]
+покрытие лечебным лаком [3]
+сколько стоит снять покрытие с ногтей [2]
+покрытие кератином ногтей [2]
+покрытие гелем [2]
+покрытие гелем натуральных ногтей [2]
+снять покрытие с ногтей цена [1]
+лечебное покрытие для ногтей в салоне [1]
+покрытие лаком ногтей стоимость [1]
+покрытие укрепление ногтей гелем лаком [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur-i-pedikyur-v-4-ruki</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр и педикюр в 4 руки в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр и педикюр в 4 руки в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Маникюр и педикюр в 4 руки в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Две процедуры одновременно от двух мастеров. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /pedikyur</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>822</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>педикюр 4 [175]
+руки маникюр педикюр [146]
+педикюр 4 руки [145]
+маникюр педикюр в 4 [134]
+маникюр и педикюр в 4 руки [98]
+маникюр и педикюр в 4 руки спб [60]
+маникюр педикюр в 6 рук [11]
+маникюр педикюр комбо [10]
+маникюр педикюр ресницы в 6 рук [7]
+маникюр и ресницы в 4 руки спб [6]
+маникюр и педикюр одновременно [6]
+маникюр педикюр в 4 руки рядом [6]
+маникюр и педикюр в четыре руки [5]
+магикюр и педикюр в 4 руки [5]
+маникюр в 4 руки спб [4]
+маникюр в 4 руки [2]
+4 руки маникюр спб [1]
+комплекс маникюр и педикюр в 4 руки [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur-dlya-pozhilykh</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр для пожилых в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр для пожилых людей в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр для пожилых в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /smart-pedikyur, /muzhskoy-pedikyur, /apparatnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>719</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>педикюр для пожилых [262]
+педикюр для пожилых спб [171]
+педикюр для пожилых людей [143]
+педикюр для пожилых людей спб [121]
+педикюр пожилым людям [8]
+скидки на педикюр для пенсионеров [6]
+педикюр для пожилых цена [5]
+педикюр пожилых женщин [2]
+педикюр старых ног [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>/smart-pedikyur</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Смарт педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Смарт педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Смарт педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /muzhskoy-pedikyur, /apparatnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>смарт педикюр [592]
+смарт педикюр спб [17]
+умный педикюр [6]
+аппаратный педикюр смарт [4]
+смарт педикюр с покрытием [2]
+смарт педикюр цена [1]
+сколько стоит смарт педикюр [1]
+смарт педикюр с покрытием гель лак [1]
+smart педикюр с покрытием [1]
+смарт педикюр без покрытия [1]
+smart педикюр без покрытия [1]
+смарт обработка педикюр [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>/muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Мужской педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Мужской педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Мужской педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /apparatnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>587</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>мужской педикюр [293]
+мужской педикюр спб [114]
+педикюр для мужчин [44]
+мужской педикюр спб цены [32]
+мужской маникюр и педикюр [27]
+мужской педикюр цена [22]
+педикюр для мужчин спб [14]
+мужской салон маникюра и педикюра [6]
+мужской маникюр и педикюр в спб [6]
+педикюр для мужчин цена [5]
+мужской аппаратный педикюр [4]
+мужской педикюр рядом [3]
+сколько стоит мужской педикюр [3]
+педикюр ног мужской [3]
+мужской педикюр с покрытием [3]
+мужской гигиенический педикюр [2]
+салон мужского педикюра [1]
+маникюр и педикюр для мужчин [1]
+мужской салон красоты педикюр [1]
+салон педикюра для мужчин [1]
+мужской педикюр записаться [1]
+мужской педикюр отзывы [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>/apparatnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>аппаратный педикюр [248]
+аппаратный педикюр спб [32]
+аппаратный педикюр где [7]
+аппаратный педикюр пятки [7]
+аппаратный педикюр грибка [3]
+педикюр классический аппаратный [2]
+аппаратный педикюр цена [2]
+аппаратный педикюр пальцев [2]
+лучше аппаратный педикюр [2]
+натоптыши аппаратный педикюр [2]
+аппаратный педикюр без покрытия [1]
+без аппаратный педикюр [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
           <t>/muzhskoy-manikyur</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Мужской маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Мужской маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Мужской маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>/, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>262</v>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>мужской маникюр [116]
 мужской маникюр спб [95]
@@ -748,51 +1629,182 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur-s-pokrytiem</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр с покрытием в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр с покрытием гель-лаком в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр с покрытием в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>педикюр с покрытием [90]
+педикюр с гель покрытием [24]
+педикюр с покрытием гель лаком [15]
+педикюр с покрытием спб [15]
+педикюр с покрытием лаком [15]
+педикюр покрытие гель [6]
+маникюр педикюр с покрытием [4]
+педикюр с покрытием цена [2]
+сколько стоит гель лак педикюр [2]
+стоимость педикюра с покрытием [2]
+маникюр педикюр гель лаком [1]
+педикюр маникюр покрытие гель [1]
+маникюр педикюр наращивание гель лаком [1]
+педикюр в салоне гель лак [1]
+педикюр на ногах с покрытием [1]
+педикюр гель лаком цена [1]
+педикюр с покрытием гель лаком цена [1]
+полный педикюр с покрытием [1]
+маникюр педикюр с покрытием гель лак [1]
+педикюр с покрытием лаком цена [1]
+акция маникюр и педикюр с покрытием [1]
+маникюр педикюр шеллак [1]
+педикюр на ногах гель лак [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>/remont-nogtya</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Ремонт ногтя в СПб | Салон Arbuzova Beauty — Комендантский пр. 53к1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Ремонт ногтя в Санкт-Петербурге — салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Ремонт ногтя в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1, Приморский район. Ремонт сломанного, треснувшего, натурального и наращённого ногтя. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>ремонт ногтя [121]
+ремонт 1 ногтя [5]
+ремонт нарощенного ногтя [5]
+ремонт сломанного ногтя [2]
+ремонт треснутого ногтя [2]
+ремонт ногтя наращивание [1]
+маникюр ремонт ногтя [1]
+ремонт натурального ногтя [1]
+ремонт трещины на ногте [1]
+ремонт треснувшего ногтя [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>/yaponskiy-manikyur</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Японский маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Японский маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Японский маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>японский маникюр спб [66]
 японский маникюр спб цена [19]
@@ -812,51 +1824,51 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>/meditsinskiy-manikyur</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Медицинский маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>Медицинский (лечебный) маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>Медицинский маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>медицинский маникюр [50]
 медицинский маникюр в спб [28]
@@ -870,51 +1882,51 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>/pilochnyy-manikyur</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Пилочный маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Пилочный маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Пилочный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /manikyur-bez-pokrytiya, /detskiy-manikyur</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>пилочный маникюр спб [86]
 пилочный маникюр спб салоны [17]
@@ -923,51 +1935,51 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>/manikyur-bez-pokrytiya</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Маникюр без покрытия в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Маникюр без покрытия в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Маникюр без покрытия в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /detskiy-manikyur</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /detskiy-manikyur</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>маникюр без покрытия [63]
 маникюр без покрытия цена [7]
@@ -983,51 +1995,169 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>/klassicheskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Классический педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Классический (обрезной) педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Классический педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>классический педикюр [59]
+классический маникюр педикюр [10]
+обрезной педикюр [8]
+классический маникюр и педикюр в санкт петербурге [5]
+классический педикюр салон [3]
+педикюр классический цена [3]
+классический комбинированный педикюр [2]
+обрезной педикюр маникюр [1]
+педикюр классический обрезной [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur-pri-gribke</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр при грибке в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр при грибке ногтей в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр при грибке в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>педикюр с грибком ногтей [18]
+педикюр грибка [16]
+педикюр при грибке ногтей на ногах [15]
+можно педикюр при грибке [10]
+педикюр спб грибок [9]
+педикюр грибковых [6]
+педикюр салоне грибке [5]
+педикюр на грибковые ногти [2]
+делают ли педикюр при грибке [2]
+педикюр на больные ногти с грибком [2]
+педикюр делают с грибком [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>/detskiy-manikyur</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Детский маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>Детский маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Детский маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>детский маникюр [45]
 маникюр для подростка [8]
@@ -1043,108 +2173,51 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>/manikyur-v-4-ruki</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в 4 руки в СПб | Салон Arbuzova Beauty</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в 4 руки в Санкт-Петербурге</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Маникюр и педикюр в 4 руки в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>/apparatnyy-manikyur</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный маникюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный маникюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Аппаратный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>маникюр и педикюр в 4 руки спб [41]
-маникюр и педикюр в 4 руки [9]
-маникюр педикюр ресницы в 6 рук [7]
-маникюр и ресницы в 4 руки спб [6]
-маникюр и педикюр в четыре руки [5]
-маникюр в 4 руки спб [4]
-маникюр в 4 руки [2]
-4 руки маникюр спб [1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>/apparatnyy-manikyur</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Аппаратный маникюр в СПб | Салон Arbuzova Beauty</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Аппаратный маникюр в Санкт-Петербурге</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Аппаратный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>аппаратный маникюр [64]
 аппаратный маникюр спб [6]
@@ -1154,51 +2227,102 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>/yaponskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Японский педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Японский педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Японский педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>японский педикюр [70]
+японский маникюр и педикюр [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>/manikyur-vtirka</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Маникюр с втиркой в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Маникюр с втиркой в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Маникюр с втиркой в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>маникюр втирка [58]
 маникюр со втиркой [7]
@@ -1209,51 +2333,51 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>/kombinirovannyy-manikyur</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Комбинированный маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Комбинированный маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>Комбинированный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>комбинированный маникюр [64]
 комбинированный маникюр с покрытием [1]
@@ -1263,51 +2387,51 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>/klassicheskiy-manikyur</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Классический маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Классический (обрезной) маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Классический маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>классический маникюр [38]
 обрезной маникюр в спб [11]
@@ -1318,51 +2442,103 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>/spa-pedikyur</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>СПА педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>СПА педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>СПА педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>спа педикюр [41]
+спа педикюр спб [11]
+маникюр педикюр спа [8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>/pudrovyy-manikyur</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Пудровый маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Пудровый маникюр (дип-система) в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>Пудровый маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>дип маникюр [17]
 пудровый маникюр [15]
@@ -1373,51 +2549,166 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>/obrabotka-stop</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Обработка стоп в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Обработка стоп (натоптыши, мозоли, трещины) в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Обработка стоп в Санкт-Петербурге — салон Arbuzova Beauty. Удаление натоптышей, мозолей, лечение трещин. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>обработка педикюра [12]
+педикюр полная обработка [9]
+педикюр с удалением стержневых мозолей [7]
+педикюр натоптыши [6]
+педикюр обработка пальцев [6]
+педикюр мозоль [4]
+педикюр удаление мозолей [3]
+педикюр обработка ногтей [3]
+обработка стоп аппаратом при педикюре [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр без покрытия в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр без покрытия в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр без покрытия в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>педикюр без покрытия [30]
+стоимость педикюра без покрытия [7]
+сколько стоит педикюр без покрытия [4]
+педикюр с без покрытием [4]
+сколько стоит педикюр на ногах без покрытия [2]
+педикюр без покрытия спб [2]
+педикюр без покрытия цена [1]
+полный педикюр без покрытия [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>/gigienicheskiy-manikyur</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Гигиенический маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Гигиенический маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>Гигиенический маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>гигиенический маникюр [45]
 гигиенический маникюр цена [2]
@@ -1426,160 +2717,423 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>/french-pedikyur</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Френч педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Французский педикюр (френч) в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Френч педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>педикюр френч [32]
+французский педикюр [14]
+французский маникюр педикюр [1]
+маникюр педикюр френч [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>/kislotnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Кислотный педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Кислотный (фруктовый) педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Кислотный педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>кислотный педикюр [39]
+фруктово кислотный педикюр [4]
+педикюр фруктовыми кислотами [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Промо</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>/aktsii</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Акции и скидки на маникюр и педикюр в СПб | Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Акции и скидки на маникюр и педикюр</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Актуальные акции и скидки на маникюр и педикюр в салоне Arbuzova Beauty в СПб. Выгодные предложения для новых и постоянных клиентов.</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /pedikyur</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>маникюр спб скидка на первый визит [6]
+педикюр акция спб [6]
+педикюр со скидкой [5]
+маникюр со скидкой [4]
+акция маникюр и педикюр [4]
+маникюр акция на первое посещение [2]
+маникюр со скидкой на первое посещение [2]
+скидка на педикюр [2]
+скидки на маникюр педикюр [2]
+маникюр акция спб [1]
+скидка маникюр педикюр [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>/kombinirovannyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Комбинированный педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Комбинированный педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Комбинированный педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>комбинированный педикюр [26]
+комбинированный маникюр педикюр [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-na-nogakh</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей на ногах в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей на ногах в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей на ногах в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>/narashchivanie-nogtey</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Наращивание ногтей в СПб | Салон Arbuzova Beauty</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Наращивание ногтей в Санкт-Петербурге</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Наращивание ногтей в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey, /pedikyur</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>маникюр спб наращивание [12]
-маникюр наращивание ногтей [7]
-маникюр наращивание [4]
-сколько стоит маникюр с наращиванием и дизайном [3]
-сколько стоит маникюр с наращиванием [2]
-маникюр наращивание френч [2]
-маникюр короткое наращивание [1]
-маникюр с наращиванием цена [1]
-маникюр наращивание ногтей рядом [1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>наращивание педикюр [8]
+педикюр с наращиванием ногтей на ногах спб [5]
+наращивание ногтей на ногах [4]
+маникюра педикюра наращивания [3]
+наращивание ногтей педикюр [3]
+маникюр педикюр наращивание ногтей [3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>/evropeyskiy-manikyur</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Европейский маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Европейский (необрезной) маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>Европейский маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>европейский маникюр [22]
 маникюр экспресс европейский [1]</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>/korrektsiya-narashchivaniya</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Коррекция наращивания ногтей в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Коррекция наращивания ногтей в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Коррекция наращивания ногтей в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey, /manikyur</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>коррекция наращивания ногтей [23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>/manikyur-s-pokrytiem</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Маникюр с покрытием в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>Маникюр с покрытием гель-лаком в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>Маникюр с покрытием в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I18" s="2" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>маникюр с покрытием [8]
 маникюр с покрытием спб недорого [5]
@@ -1591,106 +3145,152 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Промо</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>/aktsii-manikyur</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Акции и скидки на маникюр в СПб | Салон Arbuzova Beauty</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Акции и скидки на маникюр в Санкт-Петербурге</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Актуальные акции и скидки на маникюр в салоне Arbuzova Beauty в СПб. Выгодные предложения для новых и постоянных клиентов.</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-french</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей френч в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей френч в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей френч в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey, /manikyur</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>наращивание ногтей френч [19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>/esteticheskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Эстетический педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Эстетический педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Эстетический педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>маникюр спб скидка на первый визит [6]
-маникюр со скидкой [4]
-акция маникюр и педикюр [2]
-маникюр акция на первое посещение [2]
-маникюр со скидкой на первое посещение [2]
-маникюр акция спб [1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>эстетический педикюр [16]
+педикюр эстетик [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>/snyatie-manikyura</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Снятие маникюра в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Снятие маникюра в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>Снятие маникюра гель-лаком в Санкт-Петербурге — салон Arbuzova Beauty. Бережное снятие покрытия аппаратом. Запись онлайн.</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>снятие маникюра спб [9]
 сколько стоит снятие маникюра [4]
@@ -1699,51 +3299,51 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>/kreativnyy-manikyur</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Креативный маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>Креативный (арт) маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>Креативный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>креативный маникюр спб [11]
 арт маникюр спб [2]
@@ -1751,51 +3351,51 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>/french-manikyur</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Френч маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>Французский маникюр (френч) в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>Френч маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>сколько стоит маникюр френч [7]
 маникюр френч цена [5]
@@ -1803,151 +3403,302 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur-vrosshiy-nogot</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр — вросший ноготь в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Лечение вросшего ногтя (педикюр) в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Педикюр — вросший ноготь в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>педикюр вросший ноготь [7]
+педикюр вросший [7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>/brazilskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Бразильский педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Бразильский педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Бразильский педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>бразильский педикюр [13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>/manikyur-ombre</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Маникюр омбре в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>Маникюр омбре (градиент) в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>Маникюр омбре в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>маникюр амбре [12]</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>/plenochnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Плёночный педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Плёночный педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Плёночный педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>пленочный педикюр [10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>/nemetskiy-manikyur-lcn</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Немецкий маникюр LCN в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>Немецкий маникюр LCN в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>Немецкий маникюр LCN в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>немецкий маникюр lcn [8]</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>/spa-manikyur</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>СПА маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>СПА маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>СПА маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>спа маникюр [4]
 спа маникюр спб [3]
@@ -1955,259 +3706,562 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>/koreyskiy-manikyur</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Корейский маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>Корейский маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>Корейский маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>корейский маникюр спб [7]</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>/ekspress-manikyur</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Экспресс маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>Экспресс маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Экспресс маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>экспресс маникюр спб [4]
 экспресс маникюр [3]</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>/detskiy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Детский педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Детский педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Детский педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>детский педикюр [3]
+маникюр и педикюр для девочек [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>/snyatie-pedikyura</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Снятие педикюра в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Снятие педикюра в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Снятие педикюра гель-лаком в Санкт-Петербурге — салон Arbuzova Beauty. Бережное снятие покрытия аппаратом. Запись онлайн.</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>снять педикюр на ногах [2]
+снятие педикюр покрытие [2]
+снятие педикюра [1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>/manikyur-luxio</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Маникюр Luxio в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>Маникюр с покрытием Luxio в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>Маникюр Luxio в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>маникюр luxio спб [4]</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>/pilochnyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Пилочный педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Пилочный педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Пилочный педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>пилочный педикюр [4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>/plenochnyy-manikyur</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Плёночный маникюр в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>Плёночный маникюр в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>Плёночный маникюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I29" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>пленочный маникюр спб [3]</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>/ekspress-pedikyur</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Экспресс педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Экспресс педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Экспресс педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>экспресс маникюр и педикюр [3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>/manikyur-s-dizaynom</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Маникюр с дизайном в СПб | Салон Arbuzova Beauty</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>Маникюр с дизайном в Санкт-Петербурге</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>Маникюр с дизайном в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>/, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>/manikyur, /muzhskoy-manikyur, /yaponskiy-manikyur, /meditsinskiy-manikyur, /pilochnyy-manikyur, /manikyur-bez-pokrytiya</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr">
         <is>
           <t>маникюр дизайн спб [2]</t>
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>/diskovyy-pedikyur</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Дисковый педикюр в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Дисковый (бургер) педикюр в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Дисковый педикюр в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>/pedikyur, /meditsinskiy-pedikyur, /pedikyur-dlya-pozhilykh, /smart-pedikyur, /muzhskoy-pedikyur</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>дисковый педикюр [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey-muzhchinam</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей мужчинам в СПб | Салон Arbuzova Beauty</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей мужчинам в Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Наращивание ногтей мужчинам в Санкт-Петербурге — салон Arbuzova Beauty на Комендантский пр. 53к1. Цены, запись онлайн, опытные мастера.</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>/narashchivanie-nogtey, /manikyur</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>наращивание ногтей мужчинам [1]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J30"/>
+  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>